--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -100,12 +100,12 @@
     <t>good</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -115,13 +115,13 @@
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>community</t>
@@ -1148,13 +1148,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7324561403508771</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L18">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>0.9399999999999999</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1174,25 +1174,25 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M19">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1278,25 +1278,25 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.6319018404907976</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L23">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="M23">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1304,25 +1304,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.631578947368421</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L24">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1330,25 +1330,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6222222222222222</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="N25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="10:17">
